--- a/results/mp/logistic/corona/confidence/210/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,60 +40,63 @@
     <t>name</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>falling</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>low</t>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>avoid</t>
   </si>
   <si>
     <t>cut</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
@@ -124,58 +127,73 @@
     <t>happy</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>friends</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>save</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>giving</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>gt</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>help</t>
@@ -184,22 +202,22 @@
     <t>share</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>increase</t>
@@ -560,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,10 +586,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -629,7 +647,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8378378378378378</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C3">
         <v>31</v>
@@ -647,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -671,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -679,13 +697,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8082191780821918</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C4">
-        <v>236</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>236</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -697,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K4">
         <v>0.9322033898305084</v>
@@ -729,13 +747,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7941176470588235</v>
+        <v>0.8082191780821918</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>236</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>236</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -747,10 +765,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K5">
         <v>0.9166666666666666</v>
@@ -779,13 +797,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7777777777777778</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -797,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -821,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -829,13 +847,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7586206896551724</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -850,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7">
         <v>0.8461538461538461</v>
@@ -879,13 +897,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7368421052631579</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -897,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K8">
-        <v>0.835509138381201</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L8">
-        <v>320</v>
+        <v>27</v>
       </c>
       <c r="M8">
-        <v>320</v>
+        <v>27</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -921,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>63</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -929,13 +947,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5932203389830508</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -947,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K9">
-        <v>0.8297872340425532</v>
+        <v>0.8172323759791122</v>
       </c>
       <c r="L9">
-        <v>39</v>
+        <v>313</v>
       </c>
       <c r="M9">
-        <v>39</v>
+        <v>313</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -971,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -979,13 +997,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.575</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -997,19 +1015,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K10">
-        <v>0.8203125</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L10">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="M10">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1021,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1029,13 +1047,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5502645502645502</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="C11">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1047,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11">
-        <v>0.8103448275862069</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L11">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="M11">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1071,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1079,13 +1097,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5490196078431373</v>
+        <v>0.5502645502645502</v>
       </c>
       <c r="C12">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="D12">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1097,19 +1115,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K12">
-        <v>0.8098591549295775</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L12">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="M12">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1121,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1129,13 +1147,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5193798449612403</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="C13">
-        <v>268</v>
+        <v>28</v>
       </c>
       <c r="D13">
-        <v>268</v>
+        <v>28</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1147,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>248</v>
+        <v>23</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K13">
-        <v>0.8055555555555556</v>
+        <v>0.7890625</v>
       </c>
       <c r="L13">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="M13">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1171,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1179,13 +1197,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4899328859060403</v>
+        <v>0.5234899328859061</v>
       </c>
       <c r="C14">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D14">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1197,19 +1215,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K14">
-        <v>0.8048780487804879</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1221,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1229,13 +1247,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4181818181818182</v>
+        <v>0.5174418604651163</v>
       </c>
       <c r="C15">
-        <v>23</v>
+        <v>267</v>
       </c>
       <c r="D15">
-        <v>23</v>
+        <v>267</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1247,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>32</v>
+        <v>249</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K15">
-        <v>0.8018867924528302</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L15">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="M15">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1271,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1279,13 +1297,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3866666666666667</v>
+        <v>0.475</v>
       </c>
       <c r="C16">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1297,10 +1315,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K16">
         <v>0.775</v>
@@ -1329,13 +1347,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3818181818181818</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C17">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D17">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1347,19 +1365,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K17">
-        <v>0.7575757575757576</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L17">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="M17">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1371,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1379,38 +1397,38 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3571428571428572</v>
+        <v>0.4133333333333333</v>
       </c>
       <c r="C18">
+        <v>31</v>
+      </c>
+      <c r="D18">
+        <v>31</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>44</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="L18">
         <v>20</v>
       </c>
-      <c r="D18">
+      <c r="M18">
         <v>20</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>36</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K18">
-        <v>0.75</v>
-      </c>
-      <c r="L18">
-        <v>27</v>
-      </c>
-      <c r="M18">
-        <v>27</v>
-      </c>
       <c r="N18">
         <v>1</v>
       </c>
@@ -1421,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1429,13 +1447,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2619047619047619</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C19">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="D19">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1447,19 +1465,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>186</v>
+        <v>35</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K19">
-        <v>0.7441860465116279</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L19">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1471,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1479,13 +1497,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2467532467532468</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1497,19 +1515,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K20">
-        <v>0.7407407407407407</v>
+        <v>0.725</v>
       </c>
       <c r="L20">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1521,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1529,13 +1547,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2333333333333333</v>
+        <v>0.2738095238095238</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="D21">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1547,19 +1565,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>69</v>
+        <v>183</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K21">
-        <v>0.7301587301587301</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L21">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="M21">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1571,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1579,13 +1597,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1635388739946381</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="C22">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="D22">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1597,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>312</v>
+        <v>68</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K22">
-        <v>0.7291666666666666</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L22">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1621,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1629,13 +1647,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07000000000000001</v>
+        <v>0.1554959785522788</v>
       </c>
       <c r="C23">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="D23">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1647,19 +1665,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K23">
-        <v>0.65</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L23">
-        <v>221</v>
+        <v>20</v>
       </c>
       <c r="M23">
-        <v>221</v>
+        <v>20</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1671,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>119</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1679,37 +1697,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.009339774557165861</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C24">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D24">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E24">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>3076</v>
+        <v>280</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K24">
-        <v>0.6063829787234043</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L24">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1721,15 +1739,39 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0.01127577319587629</v>
+      </c>
+      <c r="C25">
+        <v>35</v>
+      </c>
+      <c r="D25">
+        <v>38</v>
+      </c>
+      <c r="E25">
+        <v>0.08</v>
+      </c>
+      <c r="F25">
+        <v>0.92</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>3069</v>
+      </c>
       <c r="J25" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K25">
-        <v>0.6</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L25">
         <v>24</v>
@@ -1747,21 +1789,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K26">
-        <v>0.5864406779661017</v>
+        <v>0.6558823529411765</v>
       </c>
       <c r="L26">
-        <v>173</v>
+        <v>223</v>
       </c>
       <c r="M26">
-        <v>173</v>
+        <v>223</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1773,21 +1815,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K27">
-        <v>0.5857142857142857</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L27">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="M27">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1799,47 +1841,47 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K28">
+        <v>0.5957446808510638</v>
+      </c>
+      <c r="L28">
         <v>56</v>
       </c>
-      <c r="K28">
-        <v>0.5846153846153846</v>
-      </c>
-      <c r="L28">
+      <c r="M28">
+        <v>56</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>38</v>
-      </c>
-      <c r="M28">
-        <v>38</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K29">
-        <v>0.58</v>
+        <v>0.5941422594142259</v>
       </c>
       <c r="L29">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="M29">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1851,21 +1893,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K30">
-        <v>0.5732217573221757</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L30">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="M30">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1877,21 +1919,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>102</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K31">
-        <v>0.5714285714285714</v>
+        <v>0.5830508474576271</v>
       </c>
       <c r="L31">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="M31">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1903,21 +1945,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>15</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K32">
-        <v>0.5056179775280899</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L32">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="M32">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1929,21 +1971,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K33">
-        <v>0.3424657534246575</v>
+        <v>0.54</v>
       </c>
       <c r="L33">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M33">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1955,33 +1997,163 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K34">
-        <v>0.3076923076923077</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="L34">
+        <v>47</v>
+      </c>
+      <c r="M34">
+        <v>47</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K35">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="L35">
+        <v>20</v>
+      </c>
+      <c r="M35">
+        <v>20</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K36">
+        <v>0.4509803921568628</v>
+      </c>
+      <c r="L36">
+        <v>23</v>
+      </c>
+      <c r="M36">
+        <v>23</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K37">
+        <v>0.3287671232876712</v>
+      </c>
+      <c r="L37">
         <v>24</v>
       </c>
-      <c r="M34">
+      <c r="M37">
         <v>24</v>
       </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>54</v>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K38">
+        <v>0.328125</v>
+      </c>
+      <c r="L38">
+        <v>21</v>
+      </c>
+      <c r="M38">
+        <v>21</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K39">
+        <v>0.2948717948717949</v>
+      </c>
+      <c r="L39">
+        <v>23</v>
+      </c>
+      <c r="M39">
+        <v>23</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
